--- a/docs/win/dump/nhl_1.31.xlsx
+++ b/docs/win/dump/nhl_1.31.xlsx
@@ -11,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>Teams</t>
-  </si>
-  <si>
-    <t>Goalies</t>
   </si>
   <si>
     <t>Win</t>
@@ -96,10 +93,6 @@
     </r>
   </si>
   <si>
-    <t>Darcy Kuemper
-Daniel Vladař</t>
-  </si>
-  <si>
     <t>50.2%
 49.8%</t>
   </si>
@@ -172,10 +165,6 @@
     </r>
   </si>
   <si>
-    <t>Scott Wedgewood
-John Gibson</t>
-  </si>
-  <si>
     <t>60.2%
 39.8%</t>
   </si>
@@ -248,10 +237,6 @@
     </r>
   </si>
   <si>
-    <t>Igor Shesterkin
-Arturs Silovs</t>
-  </si>
-  <si>
     <t>44.2%
 55.8%</t>
   </si>
@@ -324,10 +309,6 @@
     </r>
   </si>
   <si>
-    <t>Connor Hellebuyck
-Sergei Bobrovsky</t>
-  </si>
-  <si>
     <t>41.1%
 58.9%</t>
   </si>
@@ -400,10 +381,6 @@
     </r>
   </si>
   <si>
-    <t>Yaroslav Askarov
-Dustin Wolf</t>
-  </si>
-  <si>
     <t>43.7%
 56.3%</t>
   </si>
@@ -476,10 +453,6 @@
     </r>
   </si>
   <si>
-    <t>Brandon Bussi
-Logan Thompson</t>
-  </si>
-  <si>
     <t>55.6%
 44.4%</t>
   </si>
@@ -552,10 +525,6 @@
     </r>
   </si>
   <si>
-    <t>Jake Allen
-James Reimer</t>
-  </si>
-  <si>
     <t>44.6%
 55.4%</t>
   </si>
@@ -628,10 +597,6 @@
     </r>
   </si>
   <si>
-    <t>Jakub Dobes
-Ukko-Pekka Luukkonen</t>
-  </si>
-  <si>
     <t>46.7%
 53.3%</t>
   </si>
@@ -704,10 +669,6 @@
     </r>
   </si>
   <si>
-    <t>Jet Greaves
-Joel Hofer</t>
-  </si>
-  <si>
     <t>51.4%
 48.6%</t>
   </si>
@@ -780,10 +741,6 @@
     </r>
   </si>
   <si>
-    <t>Joseph Woll
-Kevin Lankinen</t>
-  </si>
-  <si>
     <t>58.9%
 41.1%</t>
   </si>
@@ -856,10 +813,6 @@
     </r>
   </si>
   <si>
-    <t>Juuse Saros
-Ilya Sorokin</t>
-  </si>
-  <si>
     <t>42.7%
 57.3%</t>
   </si>
@@ -932,10 +885,6 @@
     </r>
   </si>
   <si>
-    <t>Jake Oettinger
-Karel Vejmelka</t>
-  </si>
-  <si>
     <t>47.6%
 52.4%</t>
   </si>
@@ -1004,10 +953,6 @@
     </r>
   </si>
   <si>
-    <t>Jesper Wallstedt
-Tristan Jarry</t>
-  </si>
-  <si>
     <t>45.5%
 54.5%</t>
   </si>
@@ -1074,10 +1019,6 @@
       </rPr>
       <t xml:space="preserve"> (25-14-14)</t>
     </r>
-  </si>
-  <si>
-    <t>Joey Daccord
-Akira Schmid</t>
   </si>
   <si>
     <t>35.5%
@@ -1096,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1116,11 +1057,6 @@
       <u/>
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
-      <name val="&quot;IBM Plex Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF5A5A5A"/>
       <name val="&quot;IBM Plex Sans&quot;"/>
     </font>
     <font>
@@ -1175,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1188,34 +1124,28 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1457,330 +1387,285 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6">
+        <v>5.54</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7">
-        <v>5.54</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="9">
+        <v>6.39</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11">
-        <v>6.39</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="6">
+        <v>6.23</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7">
-        <v>6.23</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5.74</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11">
-        <v>5.74</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="7">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6">
         <v>6.08</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>36</v>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="11">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9">
         <v>5.94</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>42</v>
+      <c r="F7" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="7">
+        <v>37</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6">
         <v>6.13</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="11">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="9">
         <v>6.4</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>54</v>
+      <c r="F9" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="7">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6">
         <v>5.96</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="11">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="9">
         <v>6.15</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>66</v>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="7">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6">
         <v>5.77</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="11">
+        <v>62</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="9">
         <v>5.75</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>30</v>
+      <c r="F13" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="7">
+        <v>66</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="6">
         <v>6.23</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>54</v>
+      <c r="F14" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="11">
+        <v>70</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="9">
         <v>5.76</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>88</v>
+      <c r="F15" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
